--- a/y_test.xlsx
+++ b/y_test.xlsx
@@ -442,15 +442,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -458,15 +458,15 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,15 +490,15 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -506,15 +506,15 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -538,15 +538,15 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -562,15 +562,15 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -578,15 +578,15 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -594,18 +594,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -634,15 +634,15 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -666,31 +666,31 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
@@ -730,31 +730,31 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="B41" t="n">
         <v>2</v>
@@ -762,15 +762,15 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="B43" t="n">
         <v>2</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -794,15 +794,15 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="B49" t="n">
         <v>2</v>
@@ -826,31 +826,31 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -866,23 +866,23 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="B58" t="n">
         <v>2</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
@@ -906,23 +906,23 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -930,23 +930,23 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="B65" t="n">
         <v>2</v>
@@ -954,15 +954,15 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -970,15 +970,15 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B69" t="n">
         <v>2</v>
